--- a/Sign Up Test Cases.xlsx
+++ b/Sign Up Test Cases.xlsx
@@ -224,72 +224,12 @@
     <t>SignUpFlow_TS022</t>
   </si>
   <si>
-    <t>Verify whether User should able to load homepage successfully.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to view the "Sign In" &amp; "Create an Account" button on the homepage.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to click on the "Create an Account" button on the homepage.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide text in First Name field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide text in Last Name field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide text in Email field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide text in ***@gmail.com format in Email field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide text in Password field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide text in Confirm Password field.</t>
-  </si>
-  <si>
     <t>Verify whether User should able to check the strength of the password after providing text in Password field.</t>
   </si>
   <si>
-    <t>Verify whether User should able to check entered text should be same in Password and Confirm Password field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to check all fields are mandatory in Create New Customer Account screen.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to login on clicking 'Create an Account' button.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to click on Signout button.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide email in Email Address field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to provide password in Password field.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to click on Sign In button.</t>
-  </si>
-  <si>
     <t>Verify whether User should able to click on Women - Tops.</t>
   </si>
   <si>
-    <t>Verify whether User should able to select L size.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to select purple color.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to click on Add to Cart.</t>
-  </si>
-  <si>
-    <t>Verify whether User should able to click on Logout.</t>
-  </si>
-  <si>
     <t>SignUpFlow_TC001</t>
   </si>
   <si>
@@ -357,6 +297,66 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>User should able to load homepage successfully.</t>
+  </si>
+  <si>
+    <t>User should able to view the "Sign In" &amp; "Create an Account" button on the homepage.</t>
+  </si>
+  <si>
+    <t>User should able to click on the "Create an Account" button on the homepage.</t>
+  </si>
+  <si>
+    <t>User should able to provide text in First Name field.</t>
+  </si>
+  <si>
+    <t>User should able to provide text in Last Name field.</t>
+  </si>
+  <si>
+    <t>User should able to provide text in Email field.</t>
+  </si>
+  <si>
+    <t>User should able to provide text in ***@gmail.com format in Email field.</t>
+  </si>
+  <si>
+    <t>User should able to provide text in Password field.</t>
+  </si>
+  <si>
+    <t>User should able to provide text in Confirm Password field.</t>
+  </si>
+  <si>
+    <t>User should able to check all fields are mandatory in Create New Customer Account screen.</t>
+  </si>
+  <si>
+    <t>User should able to check entered text should be same in Password and Confirm Password field.</t>
+  </si>
+  <si>
+    <t>User should able to login on clicking 'Create an Account' button.</t>
+  </si>
+  <si>
+    <t>User should able to click on Signout button.</t>
+  </si>
+  <si>
+    <t>User should able to provide email in Email Address field.</t>
+  </si>
+  <si>
+    <t>User should able to provide password in Password field.</t>
+  </si>
+  <si>
+    <t>User should able to click on Sign In button.</t>
+  </si>
+  <si>
+    <t>User should able to select L size.</t>
+  </si>
+  <si>
+    <t>User should able to select purple color.</t>
+  </si>
+  <si>
+    <t>User should able to click on Add to Cart.</t>
+  </si>
+  <si>
+    <t>User should able to click on Logout.</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,25 +811,25 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -851,25 +851,25 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -891,25 +891,25 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -931,25 +931,25 @@
         <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -971,25 +971,25 @@
         <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1011,25 +1011,25 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1051,25 +1051,25 @@
         <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1091,25 +1091,25 @@
         <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1131,25 +1131,25 @@
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1171,25 +1171,25 @@
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1211,25 +1211,25 @@
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1251,25 +1251,25 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1291,25 +1291,25 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1331,25 +1331,25 @@
         <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1371,25 +1371,25 @@
         <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1411,25 +1411,25 @@
         <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1451,25 +1451,25 @@
         <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1491,25 +1491,25 @@
         <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1531,25 +1531,25 @@
         <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1571,25 +1571,25 @@
         <v>37</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1611,25 +1611,25 @@
         <v>38</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -1651,25 +1651,25 @@
         <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="6">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
